--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="37.189887640449435"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.189887640449435"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="29.489887640449442"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1435037</v>
       </c>
@@ -1102,120 +1621,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>36981</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1696515</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>M.TARABA-011</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>2018/1661</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1435037</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>36982</v>
@@ -1326,344 +1766,107 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>36982</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3784711</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>SAN PEDO-041N</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2018/1660</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1435389</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BENT 2 PCS, (BADLY)</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>36982</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3784711</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>SAN PEDO-041N</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>2018/1660</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="0" t="n">
-        <v>1435389</v>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>36982</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3784711</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>SAN PEDO-041N</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>2018/1660</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1435389</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>EXTERIOR PANEL RUSTED CORRODED</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36987</v>

--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="236.28988764044948" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.189887640449435"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="29.489887640449442"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,37 +1621,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1766,103 +1745,40 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BENT 2 PCS, (BADLY)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 2 PCS, (BADLY)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>EXTERIOR PANEL RUSTED CORRODED</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL RUSTED CORRODED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">

--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="236.28988764044948" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="29.489887640449442"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="37.189887640449435"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1750,9 +1796,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 2 PCS, (BADLY)", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BENT 2 PCS, (BADLY)</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1762,9 +1854,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1774,9 +1912,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL RUSTED CORRODED", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>EXTERIOR PANEL RUSTED CORRODED</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_48_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:3</t>
+          <t>Total number of containers:3</t>
         </is>
       </c>
     </row>
